--- a/配課表.xlsx
+++ b/配課表.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k0926\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F053FF46-967D-449D-BFD8-E93AFC639BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB0D4A4-FC59-4B33-A833-C6272D2A477C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Excel 範例檔說明與製作" sheetId="1" r:id="rId1"/>
+    <sheet name="配課表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="71">
   <si>
     <t>班級</t>
   </si>
@@ -155,31 +155,104 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>謝彩鳳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江治峰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈士和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>張文馨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳慧茹</t>
+  </si>
+  <si>
+    <t>鄧竹君</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>張素梅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>榮彩君</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖怡然</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周正軒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葉麗君</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>風馳電掣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓呈祈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱翊睿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍾智宇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葉麗君/鍾智宇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人文風光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳慧茹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>702</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>謝彩鳳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>江治峰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈士和</t>
+  </si>
+  <si>
+    <t>702</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>703</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>張文馨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吳慧茹</t>
+  </si>
+  <si>
+    <t>703</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>801</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>901</t>
@@ -189,46 +262,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>鄧竹君</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>張素梅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>榮彩君</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>廖怡然</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>周正軒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>葉麗君</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>風馳電掣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卓呈祈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>902</t>
   </si>
   <si>
@@ -240,10 +273,6 @@
   </si>
   <si>
     <t>903</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邱翊睿</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -323,6 +352,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,10 +578,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -583,7 +615,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -884,30 +916,30 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>39</v>
+      <c r="A24" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>39</v>
+      <c r="A25" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>39</v>
+      <c r="A26" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
@@ -917,8 +949,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>39</v>
+      <c r="A27" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
@@ -928,8 +960,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>39</v>
+      <c r="A28" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -939,8 +971,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>39</v>
+      <c r="A29" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
@@ -950,19 +982,19 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>39</v>
+      <c r="A30" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>39</v>
+      <c r="A31" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>11</v>
@@ -972,8 +1004,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>39</v>
+      <c r="A32" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>12</v>
@@ -983,8 +1015,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>39</v>
+      <c r="A33" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>14</v>
@@ -994,8 +1026,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>39</v>
+      <c r="A34" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>16</v>
@@ -1005,8 +1037,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>39</v>
+      <c r="A35" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>17</v>
@@ -1016,8 +1048,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>39</v>
+      <c r="A36" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>19</v>
@@ -1027,8 +1059,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>39</v>
+      <c r="A37" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>20</v>
@@ -1038,8 +1070,8 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>39</v>
+      <c r="A38" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>21</v>
@@ -1049,8 +1081,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
+      <c r="A39" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>22</v>
@@ -1060,8 +1092,8 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
+      <c r="A40" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>24</v>
@@ -1071,19 +1103,19 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>39</v>
+      <c r="A41" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>39</v>
+      <c r="A42" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>25</v>
@@ -1093,19 +1125,19 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>39</v>
+      <c r="A43" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>39</v>
+      <c r="A44" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>35</v>
@@ -1115,8 +1147,8 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>39</v>
+      <c r="A45" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>37</v>
@@ -1126,19 +1158,19 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>43</v>
+      <c r="A46" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>43</v>
+      <c r="A47" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>3</v>
@@ -1148,8 +1180,8 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>43</v>
+      <c r="A48" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
@@ -1159,8 +1191,8 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>43</v>
+      <c r="A49" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>5</v>
@@ -1170,8 +1202,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>43</v>
+      <c r="A50" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
@@ -1181,8 +1213,8 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>43</v>
+      <c r="A51" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>9</v>
@@ -1192,19 +1224,19 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>43</v>
+      <c r="A52" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>43</v>
+      <c r="A53" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>11</v>
@@ -1214,8 +1246,8 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>43</v>
+      <c r="A54" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>12</v>
@@ -1225,8 +1257,8 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>43</v>
+      <c r="A55" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>14</v>
@@ -1236,8 +1268,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>43</v>
+      <c r="A56" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>16</v>
@@ -1247,8 +1279,8 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>43</v>
+      <c r="A57" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>17</v>
@@ -1258,8 +1290,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>43</v>
+      <c r="A58" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>19</v>
@@ -1269,8 +1301,8 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>43</v>
+      <c r="A59" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>20</v>
@@ -1280,8 +1312,8 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>43</v>
+      <c r="A60" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>21</v>
@@ -1291,8 +1323,8 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>43</v>
+      <c r="A61" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>22</v>
@@ -1302,8 +1334,8 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>43</v>
+      <c r="A62" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>24</v>
@@ -1313,19 +1345,19 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>43</v>
+      <c r="A63" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>43</v>
+      <c r="A64" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>25</v>
@@ -1335,19 +1367,19 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>43</v>
+      <c r="A65" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>43</v>
+      <c r="A66" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>35</v>
@@ -1357,8 +1389,8 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>43</v>
+      <c r="A67" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>37</v>
@@ -1368,41 +1400,41 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>47</v>
+      <c r="A68" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>47</v>
+      <c r="A69" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>46</v>
+      <c r="A70" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>46</v>
+      <c r="A71" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>5</v>
@@ -1412,8 +1444,8 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>46</v>
+      <c r="A72" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>7</v>
@@ -1423,8 +1455,8 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>46</v>
+      <c r="A73" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>9</v>
@@ -1434,19 +1466,19 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C74" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>46</v>
+      <c r="A75" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>11</v>
@@ -1456,8 +1488,8 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>46</v>
+      <c r="A76" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>12</v>
@@ -1467,8 +1499,8 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>46</v>
+      <c r="A77" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>14</v>
@@ -1478,8 +1510,8 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>46</v>
+      <c r="A78" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>16</v>
@@ -1489,52 +1521,52 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>46</v>
+      <c r="A79" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>46</v>
+      <c r="A80" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>46</v>
+      <c r="A81" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>46</v>
+      <c r="A82" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>46</v>
+      <c r="A83" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>22</v>
@@ -1544,8 +1576,8 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>46</v>
+      <c r="A84" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>24</v>
@@ -1555,316 +1587,316 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>46</v>
+      <c r="A85" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>59</v>
+      <c r="A89" s="3">
+        <v>802</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>54</v>
+      <c r="C89" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>59</v>
+      <c r="A90" s="3">
+        <v>802</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>41</v>
+      <c r="C90" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>58</v>
+      <c r="A91" s="3">
+        <v>802</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>49</v>
+      <c r="C91" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>58</v>
+      <c r="A92" s="3">
+        <v>802</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>58</v>
+      <c r="A93" s="3">
+        <v>802</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>58</v>
+      <c r="A94" s="3">
+        <v>802</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>58</v>
+      <c r="A95" s="3">
+        <v>802</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>58</v>
+      <c r="A96" s="3">
+        <v>802</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>58</v>
+      <c r="A97" s="3">
+        <v>802</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>58</v>
+      <c r="A98" s="3">
+        <v>802</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>58</v>
+      <c r="A99" s="3">
+        <v>802</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>58</v>
+      <c r="A100" s="3">
+        <v>802</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>52</v>
+      <c r="C100" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>58</v>
+      <c r="A101" s="3">
+        <v>802</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>53</v>
+      <c r="C101" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>58</v>
+      <c r="A102" s="3">
+        <v>802</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>49</v>
+      <c r="C102" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>58</v>
+      <c r="A103" s="3">
+        <v>802</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>41</v>
+      <c r="C103" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>58</v>
+      <c r="A104" s="3">
+        <v>802</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>58</v>
+      <c r="A105" s="3">
+        <v>802</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>58</v>
+      <c r="A106" s="3">
+        <v>802</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>49</v>
+      <c r="C106" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3">
+        <v>802</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>802</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C108" s="1" t="s">
+    </row>
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>802</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>32</v>
+      <c r="C109" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>61</v>
+      <c r="A110" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>61</v>
+      <c r="A111" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>60</v>
+      <c r="A112" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>60</v>
+      <c r="A113" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>5</v>
@@ -1874,8 +1906,8 @@
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>60</v>
+      <c r="A114" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>7</v>
@@ -1885,8 +1917,8 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>60</v>
+      <c r="A115" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>9</v>
@@ -1896,19 +1928,19 @@
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>60</v>
+      <c r="A116" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>60</v>
+      <c r="A117" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>11</v>
@@ -1918,8 +1950,8 @@
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>60</v>
+      <c r="A118" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>12</v>
@@ -1929,8 +1961,8 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>60</v>
+      <c r="A119" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>14</v>
@@ -1940,8 +1972,8 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>60</v>
+      <c r="A120" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>16</v>
@@ -1951,52 +1983,52 @@
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>60</v>
+      <c r="A121" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>60</v>
+      <c r="A122" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>60</v>
+      <c r="A123" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>60</v>
+      <c r="A124" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>60</v>
+      <c r="A125" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>22</v>
@@ -2006,8 +2038,8 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>60</v>
+      <c r="A126" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>24</v>
@@ -2017,48 +2049,514 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>60</v>
+      <c r="A127" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>60</v>
+      <c r="A128" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>60</v>
+      <c r="A129" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>60</v>
+      <c r="A130" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
